--- a/src/main/java/output/PhonemesCoverageExample.xlsx
+++ b/src/main/java/output/PhonemesCoverageExample.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vowels" sheetId="1" r:id="rId1"/>
+    <sheet name="Consonants" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="211">
   <si>
     <t>Close</t>
   </si>
@@ -146,6 +147,507 @@
   </si>
   <si>
     <t>Data from Wikipedia</t>
+  </si>
+  <si>
+    <t>Nasal</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Sibilant affricate</t>
+  </si>
+  <si>
+    <t>Non-sibil affricate</t>
+  </si>
+  <si>
+    <t>Sibilant fricative</t>
+  </si>
+  <si>
+    <t>Approximant</t>
+  </si>
+  <si>
+    <t>Tap/flap</t>
+  </si>
+  <si>
+    <t>Trill</t>
+  </si>
+  <si>
+    <t>Lateral affricate</t>
+  </si>
+  <si>
+    <t>Lateral fricative</t>
+  </si>
+  <si>
+    <t>Lateral approxim</t>
+  </si>
+  <si>
+    <t>Lateral tap/flap</t>
+  </si>
+  <si>
+    <t>Bilabial</t>
+  </si>
+  <si>
+    <t>Labio-dental</t>
+  </si>
+  <si>
+    <t>Linguo-labial</t>
+  </si>
+  <si>
+    <t>Dental</t>
+  </si>
+  <si>
+    <t>Alveolar</t>
+  </si>
+  <si>
+    <t>Post-alveolar</t>
+  </si>
+  <si>
+    <t>Retroflex</t>
+  </si>
+  <si>
+    <t>Palatal</t>
+  </si>
+  <si>
+    <t>Velar</t>
+  </si>
+  <si>
+    <t>Uvular</t>
+  </si>
+  <si>
+    <t>CORONAL</t>
+  </si>
+  <si>
+    <t>LABIAL</t>
+  </si>
+  <si>
+    <t>DORSAL</t>
+  </si>
+  <si>
+    <t>Pharyngeal/epiglottal</t>
+  </si>
+  <si>
+    <t>Glottal</t>
+  </si>
+  <si>
+    <t>Laryngeal</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m̥</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ɱ</t>
+  </si>
+  <si>
+    <t>n̼</t>
+  </si>
+  <si>
+    <t>n̥</t>
+  </si>
+  <si>
+    <t>ɸ</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>ⱱ̟</t>
+  </si>
+  <si>
+    <t>ʙ̥</t>
+  </si>
+  <si>
+    <t>ʙ</t>
+  </si>
+  <si>
+    <t>Non-sibil fricative</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>t̠ʃ</t>
+  </si>
+  <si>
+    <t>d̠ʒ</t>
+  </si>
+  <si>
+    <t>ʈʂ</t>
+  </si>
+  <si>
+    <t>ɖʐ</t>
+  </si>
+  <si>
+    <t>ʈ</t>
+  </si>
+  <si>
+    <t>ɖ</t>
+  </si>
+  <si>
+    <t>ɳ̊</t>
+  </si>
+  <si>
+    <t>ɳ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pɸ</t>
+  </si>
+  <si>
+    <t>bβ</t>
+  </si>
+  <si>
+    <t>p̪f</t>
+  </si>
+  <si>
+    <t>b̪v</t>
+  </si>
+  <si>
+    <t>t̪θ</t>
+  </si>
+  <si>
+    <t>d̪ð</t>
+  </si>
+  <si>
+    <t>tɹ̝̊</t>
+  </si>
+  <si>
+    <t>dɹ̝</t>
+  </si>
+  <si>
+    <t>t̠ɹ̠̊˔</t>
+  </si>
+  <si>
+    <t>d̠ɹ̠˔</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>ʃ</t>
+  </si>
+  <si>
+    <t>ʒ</t>
+  </si>
+  <si>
+    <t>ʂ</t>
+  </si>
+  <si>
+    <t>ʐ</t>
+  </si>
+  <si>
+    <t>θ̼</t>
+  </si>
+  <si>
+    <t>ð̼</t>
+  </si>
+  <si>
+    <t>θ</t>
+  </si>
+  <si>
+    <t>ð</t>
+  </si>
+  <si>
+    <t>θ̠</t>
+  </si>
+  <si>
+    <t>ð̠</t>
+  </si>
+  <si>
+    <t>ɹ̠̊˔</t>
+  </si>
+  <si>
+    <t>ɹ̠˔</t>
+  </si>
+  <si>
+    <t>ɻ˔</t>
+  </si>
+  <si>
+    <t>ʋ̥</t>
+  </si>
+  <si>
+    <t>ʋ</t>
+  </si>
+  <si>
+    <t>ɹ̥</t>
+  </si>
+  <si>
+    <t>ɹ</t>
+  </si>
+  <si>
+    <t>ɻ̊</t>
+  </si>
+  <si>
+    <t>ɻ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ⱱ</t>
+  </si>
+  <si>
+    <t>ɾ̼</t>
+  </si>
+  <si>
+    <t>ɾ̥</t>
+  </si>
+  <si>
+    <t>ɾ</t>
+  </si>
+  <si>
+    <t>ɽ̊</t>
+  </si>
+  <si>
+    <t>ɽ</t>
+  </si>
+  <si>
+    <t>r̥</t>
+  </si>
+  <si>
+    <t>ɽ̊r̥</t>
+  </si>
+  <si>
+    <t>ɽr</t>
+  </si>
+  <si>
+    <t>tɬ</t>
+  </si>
+  <si>
+    <t>dɮ</t>
+  </si>
+  <si>
+    <t>ɬ</t>
+  </si>
+  <si>
+    <t>ɮ</t>
+  </si>
+  <si>
+    <t>l̥</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ɺ</t>
+  </si>
+  <si>
+    <t>ɲ̊</t>
+  </si>
+  <si>
+    <t>ɲ</t>
+  </si>
+  <si>
+    <t>ŋ̊</t>
+  </si>
+  <si>
+    <t>ŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ɴ</t>
+  </si>
+  <si>
+    <t>ɟ</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>ɢ</t>
+  </si>
+  <si>
+    <t>ʡ</t>
+  </si>
+  <si>
+    <t>ʔ</t>
+  </si>
+  <si>
+    <t>ʔh</t>
+  </si>
+  <si>
+    <t>ʡʢ</t>
+  </si>
+  <si>
+    <t>ʔ̞</t>
+  </si>
+  <si>
+    <t>ɦ</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>qχ</t>
+  </si>
+  <si>
+    <t>ɡɣ</t>
+  </si>
+  <si>
+    <t>kx</t>
+  </si>
+  <si>
+    <t>ɟʝ</t>
+  </si>
+  <si>
+    <t>cç</t>
+  </si>
+  <si>
+    <t>ɕ</t>
+  </si>
+  <si>
+    <t>ʑ</t>
+  </si>
+  <si>
+    <t>ç</t>
+  </si>
+  <si>
+    <t>ʝ</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ɣ</t>
+  </si>
+  <si>
+    <t>χ</t>
+  </si>
+  <si>
+    <t>ʁ</t>
+  </si>
+  <si>
+    <t>ħ</t>
+  </si>
+  <si>
+    <t>ʕ</t>
+  </si>
+  <si>
+    <t>ɰ</t>
+  </si>
+  <si>
+    <t>ɰ̊</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>j̊</t>
+  </si>
+  <si>
+    <t>ɢ̆</t>
+  </si>
+  <si>
+    <t>ʡ̆</t>
+  </si>
+  <si>
+    <t>ʢ</t>
+  </si>
+  <si>
+    <t>ʜ</t>
+  </si>
+  <si>
+    <t>ʀ</t>
+  </si>
+  <si>
+    <t>ʀ̥</t>
+  </si>
+  <si>
+    <t>ɡʟ̝</t>
+  </si>
+  <si>
+    <t>kʟ̝̊</t>
+  </si>
+  <si>
+    <t>ʟ̝</t>
+  </si>
+  <si>
+    <t>ʟ̝̊</t>
+  </si>
+  <si>
+    <t>ʟ</t>
+  </si>
+  <si>
+    <t>ʟ̥</t>
+  </si>
+  <si>
+    <t>ʟ̆</t>
+  </si>
+  <si>
+    <t>ʟ̠</t>
+  </si>
+  <si>
+    <t>cʎ̝̊</t>
+  </si>
+  <si>
+    <t>ʈɭ̊˔</t>
+  </si>
+  <si>
+    <t>ʎ̝</t>
+  </si>
+  <si>
+    <t>ʎ̝̊</t>
+  </si>
+  <si>
+    <t>ʎ</t>
+  </si>
+  <si>
+    <t>ʎ̥</t>
+  </si>
+  <si>
+    <t>ʎ̆</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ɭ̆</t>
+  </si>
+  <si>
+    <t>ɭ</t>
+  </si>
+  <si>
+    <t>ɭ̊</t>
+  </si>
+  <si>
+    <t>ɭ˔</t>
+  </si>
+  <si>
+    <t>ɭ̊˔</t>
   </si>
 </sst>
 </file>
@@ -161,12 +663,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -247,15 +755,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,6 +785,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -586,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -601,18 +1119,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -653,7 +1171,7 @@
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -670,7 +1188,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -693,7 +1211,7 @@
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -705,11 +1223,11 @@
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -732,7 +1250,7 @@
       <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -749,26 +1267,26 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -778,13 +1296,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="10"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="10"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="10"/>
+      <c r="F16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -794,4 +1312,682 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="25" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+    </row>
+    <row r="2" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" t="s">
+        <v>151</v>
+      </c>
+      <c r="S3" t="s">
+        <v>152</v>
+      </c>
+      <c r="U3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" t="s">
+        <v>156</v>
+      </c>
+      <c r="T4" t="s">
+        <v>157</v>
+      </c>
+      <c r="U4" t="s">
+        <v>158</v>
+      </c>
+      <c r="V4" t="s">
+        <v>159</v>
+      </c>
+      <c r="W4" s="15"/>
+      <c r="X4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y4" s="15"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="J5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>169</v>
+      </c>
+      <c r="R6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S6" t="s">
+        <v>167</v>
+      </c>
+      <c r="T6" t="s">
+        <v>166</v>
+      </c>
+      <c r="W6" t="s">
+        <v>162</v>
+      </c>
+      <c r="X6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>172</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="O8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>174</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y8" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>183</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" t="s">
+        <v>139</v>
+      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="U10" t="s">
+        <v>185</v>
+      </c>
+      <c r="W10" t="s">
+        <v>186</v>
+      </c>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>141</v>
+      </c>
+      <c r="O11" t="s">
+        <v>142</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" t="s">
+        <v>190</v>
+      </c>
+      <c r="U11" t="s">
+        <v>189</v>
+      </c>
+      <c r="V11" t="s">
+        <v>188</v>
+      </c>
+      <c r="W11" t="s">
+        <v>187</v>
+      </c>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="J12" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="N12" t="s">
+        <v>200</v>
+      </c>
+      <c r="P12" t="s">
+        <v>199</v>
+      </c>
+      <c r="R12" t="s">
+        <v>192</v>
+      </c>
+      <c r="S12" t="s">
+        <v>191</v>
+      </c>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="J13" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="N13" t="s">
+        <v>210</v>
+      </c>
+      <c r="O13" t="s">
+        <v>209</v>
+      </c>
+      <c r="P13" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>201</v>
+      </c>
+      <c r="R13" t="s">
+        <v>194</v>
+      </c>
+      <c r="S13" t="s">
+        <v>193</v>
+      </c>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="J14" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" t="s">
+        <v>208</v>
+      </c>
+      <c r="O14" t="s">
+        <v>207</v>
+      </c>
+      <c r="P14" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>203</v>
+      </c>
+      <c r="R14" t="s">
+        <v>196</v>
+      </c>
+      <c r="S14" t="s">
+        <v>195</v>
+      </c>
+      <c r="U14" t="s">
+        <v>198</v>
+      </c>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="K15" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>205</v>
+      </c>
+      <c r="S15" t="s">
+        <v>197</v>
+      </c>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>